--- a/performance.xlsx
+++ b/performance.xlsx
@@ -85,8 +85,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -105,22 +117,65 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8"/>
+  <sortState ref="A2:F8">
+    <sortCondition ref="A1:A8"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Batch_size"/>
+    <tableColumn id="2" name="k"/>
+    <tableColumn id="3" name="Training mean" dataDxfId="3"/>
+    <tableColumn id="4" name="Training var" dataDxfId="2"/>
+    <tableColumn id="5" name="Test mean" dataDxfId="1"/>
+    <tableColumn id="6" name="Test var" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,15 +500,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -478,59 +536,59 @@
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1">
       <c r="A2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>3.49E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.12889999999999999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>3.4599999999999999E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.12540000000000001</v>
+        <v>0.13109999999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>3.3300000000000003E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0.1217</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="F4" s="1">
         <v>1E-4</v>
@@ -538,35 +596,90 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>3.6000000000000004E-2</v>
+        <v>3.49E-2</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.1273</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1E-4</v>
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.1217</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.1273</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
